--- a/kadai7/提出ファイル群/データ.xlsx
+++ b/kadai7/提出ファイル群/データ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pow6\Documents\git\dsp1\kadai7\提出ファイル群\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EDB122-6229-4714-9DE3-3B653A536144}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6494E03D-F59F-45B2-81E2-268AA0A8C5FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075" activeTab="1" xr2:uid="{162FA084-ED47-422B-9CF2-CBAE2BC21830}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>DFT</t>
     <phoneticPr fontId="1"/>
@@ -99,11 +99,22 @@
     <t>8ms</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>DFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0&quot;ms&quot;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +198,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2148,6 +2165,802 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$10:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$10:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2B2-4A04-9E03-20A458F17087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1704178000"/>
+        <c:axId val="1397488064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1704178000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1397488064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1397488064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>処理時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704178000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$10:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$10:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7198-4D40-BE5D-2CD4EC1F0CF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1398966144"/>
+        <c:axId val="1397513440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1398966144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1397513440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1397513440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>処理時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1398966144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2188,7 +3001,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2944,6 +4869,83 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD89FD1-D385-4404-B9B2-3B09F224017D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D528A4-EB13-473B-9780-103F5F208975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5195,15 +7197,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401BFEA4-BDD0-4BD0-8438-84114E818213}">
-  <dimension ref="B4:D6"/>
+  <dimension ref="A4:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:4" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.4">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
@@ -5212,7 +7218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -5223,7 +7229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5232,10 +7238,664 @@
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>128</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>128</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <f>2^A11</f>
+        <v>128</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>256</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>256</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <f>2^A12</f>
+        <v>256</v>
+      </c>
+      <c r="C12" s="5">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>512</v>
+      </c>
+      <c r="G12">
+        <v>63</v>
+      </c>
+      <c r="I12">
+        <v>512</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" ref="B13:B65" si="0">2^A13</f>
+        <v>512</v>
+      </c>
+      <c r="C13" s="5">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1024</v>
+      </c>
+      <c r="G13">
+        <v>237</v>
+      </c>
+      <c r="I13">
+        <v>1024</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C14" s="5">
+        <v>237</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2048</v>
+      </c>
+      <c r="G14">
+        <v>939</v>
+      </c>
+      <c r="I14">
+        <v>2048</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C15" s="5">
+        <v>939</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4096</v>
+      </c>
+      <c r="G15">
+        <v>3928</v>
+      </c>
+      <c r="I15">
+        <v>4096</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3928</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>8192</v>
+      </c>
+      <c r="G16">
+        <v>15346</v>
+      </c>
+      <c r="I16">
+        <v>8192</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="C17" s="5">
+        <v>15346</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>16384</v>
+      </c>
+      <c r="G17">
+        <v>64803</v>
+      </c>
+      <c r="I17">
+        <v>16384</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="C18" s="5">
+        <v>64803</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>16777216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>67108864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>134217728</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>268435456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>536870912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1073741824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2147483648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>4294967296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>8589934592</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>17179869184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>34359738368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>68719476736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>137438953472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>274877906944</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>549755813888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>1099511627776</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2199023255552</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>4398046511104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>8796093022208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>17592186044416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>35184372088832</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>70368744177664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>140737488355328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>281474976710656</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>562949953421312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1125899906842624</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>2251799813685248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>4503599627370496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>9007199254740992</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>1.8014398509481984E+16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>3.6028797018963968E+16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>7.2057594037927936E+16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>1.4411518807585587E+17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>2.8823037615171174E+17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>5.7646075230342349E+17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>1.152921504606847E+18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>2.305843009213694E+18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>